--- a/data/jd_database.xlsx
+++ b/data/jd_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Primary Skills</t>
+          <t>All Skills Required</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Secondary Skills</t>
+          <t>LinkedIn Search Skills</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Soft Skills</t>
+          <t>LinkedIn Boolean Search</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -466,49 +466,44 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Key Responsibilities</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Qualifications</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Date Uploaded</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>All Skills Required</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Key Responsibilities</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Qualifications</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Product Leader</t>
+          <t>Test1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Partnership Program Management, P&amp;L Management, Business Development, Operational Excellence, Product Development, Strategic Planning, Relationship Management</t>
+          <t>mapping algorithms, Deep Learning Algorithms, GPU cluster, object detection, segmentation, tracking, Multi-task learning, distributed training, multi-sensor fusion, real-time processing, sensor data, cameras, LIDAR, edge computing, C, C++, Linux, algorithm development, Computer Vision, Linear Algebra, Optimization, Supervised Algorithms, Unsupervised Algorithms, Generative Techniques, Discriminative Techniques, robotic system design, autonomous vehicle system design, ROS, Path Planning, software development, manufacturing background, defense background, MR background, ADAS background, automation background, production-grade code, collaborative problem solving, data-driven decision making, customer success mindset, ownership and commitment, growth mindset, result orientation, agile processes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Market Research, Project Management, Financial Analysis, Innovation Management, Data Analysis, Training and Support, Co-marketing</t>
+          <t>Deep Learning Algorithms, C++, Computer Vision, ROS, object detection, segmentation, multi-sensor fusion, Linear Algebra, Optimization, autonomous vehicle system design, robotic system design, Path Planning, distributed training, real-time processing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Strategic Thinking, Communication, Collaboration, Problem Solving, Leadership</t>
+          <t>"Deep Learning Algorithms" AND "C++" AND "Computer Vision" AND "ROS" AND "object detection" AND "segmentation" AND "multi-sensor fusion" AND "Linear Algebra"</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Research and Development</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -518,170 +513,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tech LEAD-Perception</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Deep Learning Algorithms, C/C++ Programming, Computer Vision, Algorithm Development, Sensor Data Processing, Multi-task Learning, Optimization Techniques</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ROS (Robot Operating System), Object Detection, Autonomous Vehicle Systems, Tracking Algorithms, LIDAR Calibration, Robotic System Design, Edge Computing</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Collaborative Problem Solving, Ownership &amp; Commitment, Customer First Mindset, Data Driven Decision Making, Growth Mindset</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Senior Level</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RESEARCH ENGINEER: Defense</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>autonomous navigation, sensor integration, software architecture, C++, Python, ROS/ROS2, algorithm development</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>sensor fusion, machine learning, Pandas, FastAPI, vehicle modeling, kinematics, Data Science, NumPy, semantic segmentation, Django, motion prediction, Flask, traversal mapping</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>problem-solving, leadership, communication, collaboration, innovation</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Mid Level</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CV/ML Software Engineer</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C++, Linux, Git, CMake, Computer Vision, Machine Learning, Image Processing</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GStreamer, Profiling, FFmpeg, Debugging, ONNX Runtime, RTSP, PyTorch, Scikit-learn, Deep Learning, TensorFlow, NLP, Multithreading</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Collaboration, Problem-solving, Attention to detail, Adaptability</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mid Level</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CV/ML Software Engineer</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Mid Level</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>C++, Linux, Git, CMake, image processing, computer vision, OpenCV, ONNX Runtime, TensorRT, NCNN, MediaPipe, GStreamer, FFmpeg, RTSP, RTP, multithreading, concurrency, debugging, profiling, depth estimation, stereo matching, structure from motion, PyTorch, TensorFlow, real-time pipelines, SIMD, NEON, zero copy buffers, logging, telemetry, unit tests, static analysis, sanitizers, MQTT, IoT</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Own C++ software modules for on-device video capture, preprocessing, inference, and post-processing on Linux. | Implement classical image processing pipelines and CV algorithms. | Build and optimize distance/spacing estimation from monocular/stereo camera(s). | Integrate ML models for DMS/ADAS events. | Hit real-time targets on CPU/GPU/NPU using SIMD/NEON. | Write clean, testable C++ and CMake builds. | Collaborate with data/ML teams on dataset curation and model handoff.</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>B.Tech/B.E. in CS/EE/ECE (or equivalent)</t>
+          <t>Develop state-of-the-art mapping algorithms | Train and develop Deep Learning Algorithms on GPU cluster | Develop software for real-time processing of sensor data | Optimize algorithms to run on edge computing devices | Implement fast reliable production grade code | Work across Perception, Motion planning, Behavior planning and Control system components | Build robust solutions to cutting edge Autonomous driving problems</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Masters/PhD in Electrical/Electronics/Computer Science or an equivalent Mathematics field + Machine Learning Background</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
         </is>
       </c>
     </row>

--- a/data/jd_database.xlsx
+++ b/data/jd_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,100 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>jd1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mapping algorithms, Deep Learning Algorithms, GPU cluster, object detection, segmentation, tracking, Multi-task learning, distributed training, multi-sensor fusion, real-time processing, sensor data, cameras, LIDAR, edge computing, C, C++, Linux, algorithm development, Computer Vision, Linear Algebra, Optimization, Supervised Algorithms, Unsupervised Algorithms, Generative Techniques, Discriminative Techniques, robotic system design, autonomous vehicle system design, ROS, Path Planning, software development, manufacturing, defense, MR, ADAS, automation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Deep Learning Algorithms, C++, Computer Vision, ROS, object detection, LIDAR, mapping algorithms, Multi-task learning, Linear Algebra, Optimization, autonomous vehicle system design, robotic system design, edge computing, segmentation, tracking</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>"Deep Learning Algorithms" AND "C++" AND "Computer Vision" AND "ROS" AND "object detection" AND "LIDAR" AND "mapping algorithms" AND "Multi-task learning"</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Senior Level</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Develop state-of-the-art mapping algorithms | Train and Develop Deep Learning Algorithms on GPU cluster | Develop software for real-time processing of sensor data | Optimize algorithms to run on edge computing devices | Implement fast reliable production grade code | Work across Perception, Motion planning, Behavior planning and Control system components | Build robust solutions to cutting edge Autonomous driving problems</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Masters/PhD in Electrical/Electronics/Computer Science or an equivalent Mathematics field + Machine Learning Background</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sales, Customer Relationship Management (CRM), Communication Skills, Interpersonal Skills, Sales Target Achievement, Product Promotion, Client Engagement, Inquiry Handling, Sales Reporting, Teamwork, Independent Work, Sales and Marketing Principles, Bachelor's Degree, Prior Sales Experience, Motivation, Enthusiasm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sales, Customer Relationship Management (CRM), Sales Target Achievement, Product Promotion, Client Engagement, Sales Reporting, Sales and Marketing Principles, Bachelor's Degree</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>"Sales" AND "Customer Relationship Management (CRM)" AND "Sales Target Achievement" AND "Product Promotion" AND "Client Engagement" AND "Sales Reporting" AND "Sales and Marketing Principles" AND "Bachelor's Degree"</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mid Level</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Identify and engage with potential customers. | Present and promote products/services effectively. | Achieve monthly and quarterly sales targets. | Maintain relationships with clients and handle inquiries. | Report on sales activities and suggest improvements.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bachelor's degree in any field preferred; Prior experience in sales is an advantage.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/jd_database.xlsx
+++ b/data/jd_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,6 +621,100 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mapping algorithms, Deep Learning Algorithms, GPU cluster, object detection, segmentation, tracking, Multi-task learning, distributed training, multi-sensor fusion, real-time processing, sensor data, cameras, LIDAR, edge computing, C, C++, Linux, algorithm development, Computer Vision, Linear Algebra, Optimization, Supervised Algorithms, Unsupervised Algorithms, Generative Techniques, Discriminative Techniques, robotic system design, autonomous vehicle system design, ROS, Path Planning, software development, manufacturing, defense, MR, ADAS, automation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Deep Learning Algorithms, C++, Linux, Computer Vision, ROS, object detection, LIDAR, mapping algorithms</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>"Deep Learning Algorithms" AND "C++" AND "Linux" AND "Computer Vision" AND "ROS" AND "object detection" AND "LIDAR" AND "mapping algorithms"</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Senior Level</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Develop state-of-the-art mapping algorithms | Train and Develop Deep Learning Algorithms on GPU cluster | Develop software for real-time processing of sensor data | Optimize the algorithms to run on the edge computing device | Implement fast reliable production grade code | Work with existing code base to optimize performance | Build robust solutions to cutting edge Autonomous driving problems</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Masters/PhD in Electrical/Electronics/Computer Science or an equivalent Mathematics field + Machine Learning Background</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>testin b</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mapping algorithms, Deep Learning Algorithms, GPU cluster, object detection, segmentation, tracking, Multi-task learning, distributed training, multi-sensor fusion, real-time processing, sensor data, cameras, LIDAR, edge computing, C, C++, Linux, algorithm development, Computer Vision, Linear Algebra, Optimization, Supervised Algorithms, Unsupervised Algorithms, Generative Techniques, Discriminative Techniques, robotic system design, autonomous vehicle system design, ROS, Path Planning, software development, manufacturing, defense, MR, ADAS, automation, customer success mindset, collaborative problem solving, ownership, data-driven decision making, growth mindset, commercial orientation, agile processes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Deep Learning Algorithms, C++, Computer Vision, ROS, object detection, segmentation, multi-sensor fusion, Linear Algebra, Optimization, autonomous vehicle system design, robotic system design, Path Planning, agile processes, data-driven decision making</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>"Deep Learning Algorithms" AND "C++" AND "Computer Vision" AND "ROS" AND "object detection" AND "segmentation" AND "multi-sensor fusion" AND "Linear Algebra"</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Senior Level</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Develop state-of-the-art mapping algorithms | Train and develop Deep Learning Algorithms on GPU cluster | Develop software for real-time processing of sensor data | Optimize algorithms to run on edge computing devices | Implement fast reliable production grade code | Work across Perception, Motion planning, Behavior planning and Control system components | Build robust solutions to cutting edge Autonomous driving problems</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Masters/PhD in Electrical/Electronics/Computer Science or an equivalent Mathematics field + Machine Learning Background</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/jd_database.xlsx
+++ b/data/jd_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,6 +715,100 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Testing alpha</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mapping algorithms, Deep Learning Algorithms, GPU cluster, object detection, segmentation, tracking, Multi-task learning, distributed training, multi-sensor fusion, real-time processing, sensor data, cameras, LIDAR, edge computing, C, C++, Linux, algorithm development, Computer Vision, Linear Algebra, Optimization, Supervised Algorithms, Unsupervised Algorithms, Generative Techniques, Discriminative Techniques, robotic system design, autonomous vehicle system design, ROS, Path Planning, manufacturing background, defense background, MR background, ADAS background, automation background, production-grade code, collaborative problem solving, data-driven decision making, growth mindset, commercial orientation, agile processes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Deep Learning Algorithms, object detection, C++, Linux, Computer Vision, ROS, Path Planning, Linear Algebra, Optimization, multi-sensor fusion, autonomous vehicle system design, robotic system design, segmentation, tracking, distributed training</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>"Deep Learning Algorithms" AND "object detection" AND "C++" AND "Linux" AND "Computer Vision" AND "ROS" AND "Path Planning" AND "Linear Algebra"</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Senior Level</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Develop state-of-the-art mapping algorithms | Train and develop Deep Learning Algorithms on GPU cluster | Develop software for real-time processing of sensor data | Optimize algorithms to run on edge computing devices | Implement fast reliable production grade code | Work across Perception, Motion planning, Behavior planning and Control system components | Build robust solutions to cutting edge Autonomous driving problems</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Masters/PhD in Electrical/Electronics/Computer Science or an equivalent Mathematics field + Machine Learning Background</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Testin C</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mapping algorithms, Deep Learning Algorithms, GPU cluster, object detection, segmentation, tracking, Multi-task learning, distributed training, multi-sensor fusion, real-time processing, sensor data, cameras, LIDAR, edge computing, C, C++, Linux, algorithm optimization, Linear Algebra, Optimization, Supervised Algorithms, Unsupervised Algorithms, Generative Techniques, Discriminative Techniques, Computer Vision, robotic system design, autonomous vehicle system design, ROS, Path Planning, software development, manufacturing background, defense background, MR background, ADAS background, automation background, production-grade code, collaborative problem solving, data-driven decision making, customer success mindset, ownership and commitment, growth mindset, result orientation, agile processes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Deep Learning Algorithms, C++, Linux, Computer Vision, ROS, object detection, multi-sensor fusion, autonomous vehicle system design, mapping algorithms, tracking, distributed training, real-time processing, Linear Algebra, Optimization</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>"Deep Learning Algorithms" AND "C++" AND "Linux" AND "Computer Vision" AND "ROS" AND "object detection" AND "multi-sensor fusion" AND "autonomous vehicle system design"</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Senior Level</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Develop state-of-the-art mapping algorithms | Train and develop Deep Learning Algorithms on GPU cluster | Develop software for real-time processing of sensor data | Optimize algorithms to run on edge computing devices | Implement fast reliable production grade code | Work across Perception, Motion planning, Behavior planning and Control system components | Build robust solutions to cutting edge Autonomous driving problems</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Masters/PhD in Electrical/Electronics/Computer Science or an equivalent Mathematics field + Machine Learning Background</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/jd_database.xlsx
+++ b/data/jd_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Date Uploaded</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Uploaded By</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,7 @@
           <t>2025-10-16</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -573,6 +579,7 @@
           <t>2025-10-23</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -620,6 +627,7 @@
           <t>2025-10-24</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -667,6 +675,7 @@
           <t>2025-11-03</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -714,6 +723,7 @@
           <t>2025-11-03</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -761,6 +771,7 @@
           <t>2025-11-04</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -806,6 +817,59 @@
       <c r="I8" t="inlineStr">
         <is>
           <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mapping algorithms, Deep Learning Algorithms, GPU cluster, object detection, segmentation, tracking, Multi-task learning, distributed training, multi-sensor fusion, real-time processing, sensor data, cameras, LIDAR, edge computing, C, C++, Linux, algorithm development, Computer Vision, Linear Algebra, Optimization, Supervised Algorithms, Unsupervised Algorithms, Generative Techniques, Discriminative Techniques, robotic system design, autonomous vehicle system design, ROS, Path Planning, software development, manufacturing, defense, MR, ADAS, automation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Deep Learning Algorithms, object detection, C++, Linux, Computer Vision, ROS, Path Planning, multi-sensor fusion, Linear Algebra, Optimization, robotic system design, autonomous vehicle system design, segmentation, tracking</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>"Deep Learning Algorithms" AND "object detection" AND "C++" AND "Linux" AND "Computer Vision" AND "ROS" AND "Path Planning" AND "multi-sensor fusion"</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Senior Level</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Develop state-of-the-art mapping algorithms | Train and Develop Deep Learning Algorithms on GPU cluster | Develop software for real-time processing of sensor data | Optimize the algorithms to run on the edge computing device | Implement fast reliable production grade code | Work across Perception, Motion planning, Behavior planning and Control system components | Work with existing code base to optimize performance</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Masters/PhD in Electrical/Electronics/Computer Science or an equivalent Mathematics field + Machine Learning Background</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>marketscope</t>
         </is>
       </c>
     </row>
